--- a/BackTest/2019-10-30 BackTest ETH.xlsx
+++ b/BackTest/2019-10-30 BackTest ETH.xlsx
@@ -451,20 +451,14 @@
         <v>215770</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>215795</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -540,11 +528,7 @@
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -579,11 +563,7 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -618,11 +598,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -657,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -696,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -735,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -813,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -845,20 +801,14 @@
         <v>215875</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -886,20 +836,14 @@
         <v>215860</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -927,20 +871,14 @@
         <v>215840</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -968,20 +906,14 @@
         <v>215810</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1009,20 +941,14 @@
         <v>215795</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1050,20 +976,14 @@
         <v>215765</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1091,20 +1011,14 @@
         <v>215750</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>215500</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1132,20 +1046,14 @@
         <v>215755</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1173,20 +1081,14 @@
         <v>215745</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1214,20 +1116,14 @@
         <v>215735</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1255,20 +1151,14 @@
         <v>215740</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1296,20 +1186,14 @@
         <v>215740</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1337,20 +1221,14 @@
         <v>215735</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1378,20 +1256,14 @@
         <v>215735</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1419,20 +1291,14 @@
         <v>215740</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1460,20 +1326,14 @@
         <v>215725</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1501,20 +1361,14 @@
         <v>215705</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>215500</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1542,20 +1396,14 @@
         <v>215665</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1583,20 +1431,14 @@
         <v>215635</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1624,20 +1466,14 @@
         <v>215610</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1665,20 +1501,14 @@
         <v>215590</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1706,20 +1536,14 @@
         <v>215560</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1747,20 +1571,14 @@
         <v>215530</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1788,20 +1606,14 @@
         <v>215500</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>214800</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1829,20 +1641,14 @@
         <v>215465</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1870,20 +1676,14 @@
         <v>215445</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1911,20 +1711,14 @@
         <v>215425</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1952,20 +1746,14 @@
         <v>215390</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1993,20 +1781,14 @@
         <v>215355</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2034,20 +1816,14 @@
         <v>215320</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>214900</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2075,20 +1851,14 @@
         <v>215280</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2116,20 +1886,14 @@
         <v>215240</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2157,20 +1921,14 @@
         <v>215220</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2198,20 +1956,14 @@
         <v>215195</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2239,20 +1991,14 @@
         <v>215155</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2280,20 +2026,14 @@
         <v>215130</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2321,20 +2061,14 @@
         <v>215105</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2362,20 +2096,14 @@
         <v>215115</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2403,20 +2131,14 @@
         <v>215115</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2444,20 +2166,14 @@
         <v>215130</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>215500</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2485,20 +2201,14 @@
         <v>215140</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2526,20 +2236,14 @@
         <v>215140</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2567,20 +2271,14 @@
         <v>215140</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2608,20 +2306,14 @@
         <v>215165</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>215300</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2649,20 +2341,14 @@
         <v>215170</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2690,20 +2376,14 @@
         <v>215175</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2731,20 +2411,14 @@
         <v>215175</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2772,20 +2446,14 @@
         <v>215170</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2813,20 +2481,14 @@
         <v>215170</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2854,20 +2516,14 @@
         <v>215180</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2895,20 +2551,14 @@
         <v>215190</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>215300</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2936,20 +2586,14 @@
         <v>215200</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>215300</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2977,20 +2621,14 @@
         <v>215185</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3018,20 +2656,14 @@
         <v>215175</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3059,20 +2691,14 @@
         <v>215185</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3100,20 +2726,14 @@
         <v>215225</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3141,20 +2761,14 @@
         <v>215270</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3182,20 +2796,14 @@
         <v>215290</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3223,20 +2831,14 @@
         <v>215315</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3264,20 +2866,14 @@
         <v>215335</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3305,20 +2901,14 @@
         <v>215350</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3346,20 +2936,14 @@
         <v>215395</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3387,20 +2971,14 @@
         <v>215450</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>216100</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3428,20 +3006,14 @@
         <v>215480</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3469,20 +3041,14 @@
         <v>215530</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>216100</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3510,20 +3076,14 @@
         <v>215570</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3551,20 +3111,14 @@
         <v>215630</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>216300</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3592,20 +3146,14 @@
         <v>215695</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>216400</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3640,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3679,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3757,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3874,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3913,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3991,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4030,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4069,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4108,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4186,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4225,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4303,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4342,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4459,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4498,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4615,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4654,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4693,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4732,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4771,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4849,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4888,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4927,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4966,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5044,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5083,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5161,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5200,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5278,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5317,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5356,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5395,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5434,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5473,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5512,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5551,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5590,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5629,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5668,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5707,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5785,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5824,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5863,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5902,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5941,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5980,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6058,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6136,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6175,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6214,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6253,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6331,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6370,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6409,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6448,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6487,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6565,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6604,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6643,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6682,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6721,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6760,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6799,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6838,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6877,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6916,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6955,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6994,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7033,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7072,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7111,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7189,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7228,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7267,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7306,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7345,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7384,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7423,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7462,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7501,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7540,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7618,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7657,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7696,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7735,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7774,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7852,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7891,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7930,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7969,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8047,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8125,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8164,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8203,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8281,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8320,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8359,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8398,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8476,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8515,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8554,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8593,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8632,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8671,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8710,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8749,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8788,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8827,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8983,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9022,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9061,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9100,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9178,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9256,11 +8228,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +8263,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9334,11 +8298,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9373,11 +8333,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9412,11 +8368,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9451,11 +8403,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9490,11 +8438,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9529,11 +8473,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9568,11 +8508,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9607,11 +8543,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +8578,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9685,11 +8613,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +8648,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9763,11 +8683,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9802,11 +8718,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9841,11 +8753,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +8788,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9919,11 +8823,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9958,11 +8858,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9997,11 +8893,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10036,11 +8928,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10075,11 +8963,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10114,11 +8998,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +9033,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10192,11 +9068,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10231,11 +9103,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10270,11 +9138,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10309,11 +9173,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +9208,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10387,11 +9243,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10426,11 +9278,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10465,11 +9313,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10504,11 +9348,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10543,11 +9383,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +9418,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10621,11 +9453,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10660,11 +9488,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10699,11 +9523,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10738,11 +9558,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10777,11 +9593,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10816,11 +9628,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10855,11 +9663,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10894,11 +9698,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10933,11 +9733,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10972,11 +9768,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +9803,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11050,11 +9838,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11089,11 +9873,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11128,11 +9908,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11167,11 +9943,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11199,20 +9971,14 @@
         <v>216125</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11240,20 +10006,14 @@
         <v>216020</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>215300</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11281,20 +10041,14 @@
         <v>215925</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11333,7 +10087,7 @@
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M277" t="n">
@@ -11410,7 +10164,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="n">
-        <v>215300</v>
+        <v>215200</v>
       </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
@@ -11451,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="n">
-        <v>215500</v>
+        <v>215700</v>
       </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
@@ -11492,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="n">
-        <v>215900</v>
+        <v>215500</v>
       </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
@@ -11574,7 +10328,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="n">
-        <v>215300</v>
+        <v>215700</v>
       </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
@@ -11615,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="n">
-        <v>215700</v>
+        <v>215300</v>
       </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
@@ -11650,14 +10404,12 @@
         <v>215365</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>215500</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
@@ -11691,14 +10443,12 @@
         <v>215340</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
@@ -11732,14 +10482,12 @@
         <v>215320</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
@@ -11773,14 +10521,12 @@
         <v>215300</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
@@ -11814,14 +10560,12 @@
         <v>215305</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
@@ -11855,14 +10599,12 @@
         <v>215340</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
@@ -11896,14 +10638,12 @@
         <v>215405</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
@@ -11937,14 +10677,12 @@
         <v>215495</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
@@ -11978,14 +10716,12 @@
         <v>215530</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
@@ -12019,14 +10755,12 @@
         <v>215580</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
@@ -12489,14 +11223,12 @@
         <v>215810</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -12530,14 +11262,12 @@
         <v>215805</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>215500</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -12571,14 +11301,12 @@
         <v>215790</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>215300</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -12612,14 +11340,12 @@
         <v>215770</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>215200</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
@@ -12653,14 +11379,12 @@
         <v>215730</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>215100</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
@@ -12694,14 +11418,12 @@
         <v>215710</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
@@ -12735,14 +11457,12 @@
         <v>215690</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
@@ -12776,14 +11496,12 @@
         <v>215675</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
@@ -12817,14 +11535,12 @@
         <v>215655</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -12858,14 +11574,12 @@
         <v>215660</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
@@ -12899,14 +11613,12 @@
         <v>215645</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -12940,14 +11652,12 @@
         <v>215635</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -12981,14 +11691,12 @@
         <v>215620</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -13022,14 +11730,12 @@
         <v>215605</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -13063,14 +11769,12 @@
         <v>215590</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>215400</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -13104,14 +11808,12 @@
         <v>215585</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -13145,14 +11847,12 @@
         <v>215570</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -13186,14 +11886,12 @@
         <v>215555</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -13227,14 +11925,12 @@
         <v>215560</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -13268,14 +11964,12 @@
         <v>215560</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -13309,14 +12003,12 @@
         <v>215580</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -13350,14 +12042,12 @@
         <v>215605</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -13391,14 +12081,12 @@
         <v>215640</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -13432,14 +12120,12 @@
         <v>215690</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>216200</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -13473,14 +12159,12 @@
         <v>215740</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>216100</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -15386,14 +14070,12 @@
         <v>215935</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
       </c>
-      <c r="J379" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
@@ -15427,14 +14109,12 @@
         <v>215875</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
-      <c r="J380" t="n">
-        <v>215300</v>
-      </c>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
@@ -15468,14 +14148,12 @@
         <v>215845</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
       </c>
-      <c r="J381" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
@@ -15509,14 +14187,12 @@
         <v>215830</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
       </c>
-      <c r="J382" t="n">
-        <v>216100</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
@@ -15550,14 +14226,12 @@
         <v>215790</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
       </c>
-      <c r="J383" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
@@ -15630,14 +14304,12 @@
         <v>215745</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
@@ -15671,14 +14343,12 @@
         <v>215725</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
       </c>
-      <c r="J386" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
@@ -15712,14 +14382,12 @@
         <v>215700</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
-        <v>215500</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
@@ -15753,14 +14421,12 @@
         <v>215695</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>215700</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
@@ -15794,14 +14460,12 @@
         <v>215670</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>215300</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
@@ -15835,14 +14499,12 @@
         <v>215660</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
       </c>
-      <c r="J390" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
@@ -15876,14 +14538,12 @@
         <v>215670</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
       </c>
-      <c r="J391" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
@@ -15917,14 +14577,12 @@
         <v>215670</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
       </c>
-      <c r="J392" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
@@ -15958,14 +14616,12 @@
         <v>215675</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
       </c>
-      <c r="J393" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
@@ -15999,14 +14655,12 @@
         <v>215690</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
@@ -16040,14 +14694,12 @@
         <v>215685</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>215600</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
@@ -16081,14 +14733,12 @@
         <v>215690</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>215900</v>
-      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
@@ -16122,14 +14772,12 @@
         <v>215705</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
@@ -16163,14 +14811,12 @@
         <v>215750</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="n">
-        <v>216300</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
@@ -17257,14 +15903,12 @@
         <v>216115</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
@@ -17298,14 +15942,12 @@
         <v>216080</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
@@ -17339,14 +15981,12 @@
         <v>216035</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
@@ -18394,14 +17034,12 @@
         <v>216050</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>215800</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
@@ -18552,14 +17190,12 @@
         <v>215930</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>216100</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
@@ -18593,14 +17229,12 @@
         <v>215905</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>216000</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
@@ -24329,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr"/>
@@ -24434,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr"/>
@@ -24469,7 +23103,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr"/>
@@ -24504,7 +23138,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr"/>
@@ -24539,7 +23173,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr"/>
@@ -24574,7 +23208,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr"/>

--- a/BackTest/2019-10-30 BackTest ETH.xlsx
+++ b/BackTest/2019-10-30 BackTest ETH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,11 +913,17 @@
         <v>-290.78113620705</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>215400</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +952,17 @@
         <v>-290.78113620705</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>215000</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +991,17 @@
         <v>-203.48373620705</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>215000</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1030,17 @@
         <v>-203.48373620705</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>215100</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1069,17 @@
         <v>-260.29993620705</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>215100</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,15 +1108,17 @@
         <v>-167.25983620705</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>215000</v>
       </c>
-      <c r="J21" t="n">
-        <v>215000</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,17 +1147,15 @@
         <v>-167.25983620705</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>215300</v>
       </c>
-      <c r="J22" t="n">
-        <v>215000</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1156,15 +1186,15 @@
         <v>-167.25983620705</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>215000</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>215300</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1195,11 +1225,17 @@
         <v>-198.03833620705</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>215300</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1228,7 +1264,7 @@
         <v>-198.03833620705</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>215200</v>
@@ -1236,7 +1272,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L25" t="n">
@@ -1267,9 +1303,11 @@
         <v>-250.0846624152285</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>215200</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
@@ -1304,7 +1342,7 @@
         <v>-205.9989624152284</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>215100</v>
@@ -1343,7 +1381,7 @@
         <v>-221.6175624152285</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>215200</v>
@@ -1382,7 +1420,7 @@
         <v>-212.0938624152285</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>215100</v>
@@ -1421,7 +1459,7 @@
         <v>-212.0938624152285</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>215300</v>
@@ -1460,7 +1498,7 @@
         <v>-192.5438624152285</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>215300</v>
@@ -1499,7 +1537,7 @@
         <v>-201.8992624152285</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>215500</v>
@@ -1538,7 +1576,7 @@
         <v>-201.8992624152285</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>215300</v>
@@ -1577,7 +1615,7 @@
         <v>-170.9611624152285</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>215300</v>
@@ -1616,9 +1654,11 @@
         <v>-170.9611624152285</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>215500</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1653,7 +1693,7 @@
         <v>-183.9908624152285</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>215500</v>
@@ -1692,7 +1732,7 @@
         <v>-171.5029624152285</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>215200</v>
@@ -1731,7 +1771,7 @@
         <v>-176.3065624152285</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>215700</v>
@@ -1770,7 +1810,7 @@
         <v>-176.3065624152285</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>215400</v>
@@ -1809,9 +1849,11 @@
         <v>-183.0827624152284</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>215400</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1846,7 +1888,7 @@
         <v>-143.5518624152284</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>215100</v>
@@ -1885,7 +1927,7 @@
         <v>-143.5518624152284</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>215400</v>
@@ -1924,7 +1966,7 @@
         <v>-143.5518624152284</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>215400</v>
@@ -1963,7 +2005,7 @@
         <v>-131.0607624152285</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>215400</v>
@@ -2002,7 +2044,7 @@
         <v>-103.3454288656455</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>215600</v>
@@ -2041,7 +2083,7 @@
         <v>-97.96375293971957</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>215800</v>
@@ -2080,7 +2122,7 @@
         <v>-99.16385293971958</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>216000</v>
@@ -2119,9 +2161,11 @@
         <v>-99.16745293971958</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>215900</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2156,9 +2200,11 @@
         <v>-91.29945293971959</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>215500</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2193,9 +2239,11 @@
         <v>7.007871134354488</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>215900</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2230,9 +2278,11 @@
         <v>-27.11782886564551</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>216000</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2267,9 +2317,11 @@
         <v>-20.06562886564551</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>215900</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2304,9 +2356,11 @@
         <v>-20.06562886564551</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>216000</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2341,9 +2395,11 @@
         <v>-20.06562886564551</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>216000</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2378,9 +2434,11 @@
         <v>-20.06562886564551</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>216000</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2452,9 +2510,11 @@
         <v>-36.96920293971959</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>215900</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2489,9 +2549,11 @@
         <v>-36.96920293971959</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>215800</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2526,9 +2588,11 @@
         <v>-36.96920293971959</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>215800</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2563,9 +2627,11 @@
         <v>-36.96920293971959</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>215800</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2600,9 +2666,11 @@
         <v>-36.96920293971959</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>215800</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2637,9 +2705,11 @@
         <v>101.5691970602804</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>215800</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2674,9 +2744,11 @@
         <v>101.5691970602804</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>215900</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2711,9 +2783,11 @@
         <v>101.5691970602804</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>215900</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2748,9 +2822,11 @@
         <v>101.5691970602804</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>215900</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2785,9 +2861,11 @@
         <v>101.5691970602804</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>215900</v>
+      </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2822,9 +2900,11 @@
         <v>101.5691970602804</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>215900</v>
+      </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2859,9 +2939,11 @@
         <v>101.5691970602804</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>215900</v>
+      </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2896,9 +2978,11 @@
         <v>99.63529706028041</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>215900</v>
+      </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2933,9 +3017,11 @@
         <v>99.63529706028041</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>215700</v>
+      </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2970,9 +3056,11 @@
         <v>96.0443970602804</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>215700</v>
+      </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -3007,9 +3095,11 @@
         <v>76.0027970602804</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>215600</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3044,7 +3134,7 @@
         <v>83.3100970602804</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>215300</v>
@@ -3083,7 +3173,7 @@
         <v>78.4148970602804</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>215600</v>
@@ -3122,7 +3212,7 @@
         <v>78.6948970602804</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>215400</v>
@@ -3161,7 +3251,7 @@
         <v>78.6948970602804</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>215700</v>
@@ -3200,9 +3290,11 @@
         <v>78.6948970602804</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>215700</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3237,9 +3329,11 @@
         <v>78.6948970602804</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>215700</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3274,9 +3368,11 @@
         <v>15.77679706028039</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>215700</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3311,9 +3407,11 @@
         <v>26.07249706028039</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>215600</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3348,9 +3446,11 @@
         <v>26.07249706028039</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>215900</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3385,9 +3485,11 @@
         <v>0.9381970602803946</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>215900</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3422,9 +3524,11 @@
         <v>3.117597060280394</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>215700</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3459,9 +3563,11 @@
         <v>8.790997060280395</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>215900</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3496,9 +3602,11 @@
         <v>-26.5380029397196</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>216000</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3533,9 +3641,11 @@
         <v>-17.1357387135843</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>215700</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3570,9 +3680,11 @@
         <v>-71.2679387135843</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>215800</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3607,9 +3719,11 @@
         <v>-77.27993778594052</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>215700</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3644,9 +3758,11 @@
         <v>-82.71223778594052</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>215600</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3681,9 +3797,11 @@
         <v>-82.71223778594052</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>215200</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3718,7 +3836,7 @@
         <v>-115.7806377859405</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>215200</v>
@@ -3757,7 +3875,7 @@
         <v>-245.7862377859405</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>215100</v>
@@ -3796,7 +3914,7 @@
         <v>-245.7862377859405</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>215000</v>
@@ -3835,7 +3953,7 @@
         <v>-339.0365377859405</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>215000</v>
@@ -3874,7 +3992,7 @@
         <v>-283.4054377859405</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>214800</v>
@@ -3913,7 +4031,7 @@
         <v>-254.2669377859405</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>215000</v>
@@ -3952,7 +4070,7 @@
         <v>-236.7470377859405</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>215100</v>
@@ -3991,7 +4109,7 @@
         <v>-254.0386377859405</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>215200</v>
@@ -4030,7 +4148,7 @@
         <v>-254.0386377859405</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>215000</v>
@@ -4069,7 +4187,7 @@
         <v>-239.5751377859405</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>215000</v>
@@ -4108,7 +4226,7 @@
         <v>-264.9008377859404</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>215100</v>
@@ -4147,7 +4265,7 @@
         <v>-200.0841377859404</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>214900</v>
@@ -4186,7 +4304,7 @@
         <v>-181.7788203381446</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>215100</v>
@@ -4225,7 +4343,7 @@
         <v>-127.7104203381446</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>215200</v>
@@ -4264,7 +4382,7 @@
         <v>-127.7104203381446</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>215500</v>
@@ -4303,7 +4421,7 @@
         <v>-128.0274203381446</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>215500</v>
@@ -4342,7 +4460,7 @@
         <v>-129.1154203381446</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>215400</v>
@@ -4381,7 +4499,7 @@
         <v>-130.3732203381446</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>215300</v>
@@ -4420,7 +4538,7 @@
         <v>-119.7149203381446</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>215200</v>
@@ -4459,7 +4577,7 @@
         <v>-228.8955203381446</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>215500</v>
@@ -4498,7 +4616,7 @@
         <v>-260.9204203381446</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>215400</v>
@@ -4537,7 +4655,7 @@
         <v>-311.9662203381446</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>215300</v>
@@ -4576,7 +4694,7 @@
         <v>-318.0552203381446</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>215000</v>
@@ -4615,7 +4733,7 @@
         <v>-315.1496203381446</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>214900</v>
@@ -4654,7 +4772,7 @@
         <v>-340.2171203381446</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>215300</v>
@@ -4693,7 +4811,7 @@
         <v>-340.2171203381446</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>215100</v>
@@ -4732,7 +4850,7 @@
         <v>-361.7520203381446</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>215100</v>
@@ -4771,7 +4889,7 @@
         <v>-361.7520203381446</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>215000</v>
@@ -4810,7 +4928,7 @@
         <v>-314.2629203381446</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>215000</v>
@@ -4849,7 +4967,7 @@
         <v>-311.5388203381445</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>215100</v>
@@ -4888,7 +5006,7 @@
         <v>-301.8469803009871</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>215200</v>
@@ -4927,7 +5045,7 @@
         <v>-301.8469803009871</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>215300</v>
@@ -4966,7 +5084,7 @@
         <v>-301.8469803009871</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>215300</v>
@@ -5005,7 +5123,7 @@
         <v>-272.6551203381445</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>215300</v>
@@ -5044,7 +5162,7 @@
         <v>-221.8098203381445</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>215400</v>
@@ -5083,7 +5201,7 @@
         <v>-218.7788615609328</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>215600</v>
@@ -5122,7 +5240,7 @@
         <v>-218.7788615609328</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>215900</v>
@@ -5161,7 +5279,7 @@
         <v>-223.0360615609328</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>215900</v>
@@ -5200,7 +5318,7 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>215700</v>
@@ -5239,7 +5357,7 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>215900</v>
@@ -5278,7 +5396,7 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>215900</v>
@@ -5317,7 +5435,7 @@
         <v>-83.18196156093285</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>215900</v>
@@ -5356,7 +5474,7 @@
         <v>0.1576384390671564</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>216100</v>
@@ -5395,9 +5513,11 @@
         <v>-41.90841248685877</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>216200</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5432,9 +5552,11 @@
         <v>-41.87981248685877</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>216000</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5469,9 +5591,11 @@
         <v>-27.87861248685877</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>216100</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5506,9 +5630,11 @@
         <v>-22.87151248685877</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>216200</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5543,9 +5669,11 @@
         <v>-52.24671248685877</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>216400</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5580,9 +5708,11 @@
         <v>-56.88381230201588</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>216300</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5617,9 +5747,11 @@
         <v>-56.88381230201588</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>216100</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5654,9 +5786,11 @@
         <v>355.8374205698076</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>216100</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5691,9 +5825,11 @@
         <v>755.6807205698076</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>216900</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -14682,9 +14818,11 @@
         <v>1462.785396807654</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>215700</v>
+      </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
@@ -14719,9 +14857,11 @@
         <v>1621.548286113209</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>215800</v>
+      </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
@@ -25782,7 +25922,7 @@
         <v>3864.435873099411</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -25819,7 +25959,7 @@
         <v>3783.813873099411</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -25856,7 +25996,7 @@
         <v>3469.287373099412</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -25893,7 +26033,7 @@
         <v>3470.451910036349</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -25930,7 +26070,7 @@
         <v>3470.451910036349</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26004,7 +26144,7 @@
         <v>3466.716210036348</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26041,18 +26181,16 @@
         <v>3467.716210036348</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr"/>
       <c r="M692" t="inlineStr"/>
     </row>
     <row r="693">
@@ -26078,15 +26216,11 @@
         <v>3580.430510036349</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -26115,15 +26249,11 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -26152,15 +26282,11 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26189,15 +26315,11 @@
         <v>3558.246861115485</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26226,15 +26348,11 @@
         <v>3584.606461115485</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26263,15 +26381,11 @@
         <v>3612.700861115485</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26300,15 +26414,11 @@
         <v>3621.029066733463</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26341,11 +26451,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -26378,11 +26484,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -26415,11 +26517,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -26452,11 +26550,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -26489,11 +26583,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -26526,11 +26616,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -26563,11 +26649,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -26600,11 +26682,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26637,11 +26715,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26674,11 +26748,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26711,11 +26781,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26748,11 +26814,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +26847,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26822,11 +26880,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26859,11 +26913,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26892,15 +26942,11 @@
         <v>3588.339266733463</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26933,11 +26979,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26966,15 +27008,11 @@
         <v>3578.895566733463</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -27003,15 +27041,11 @@
         <v>3542.302166733463</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -27040,15 +27074,11 @@
         <v>3582.265366733463</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -27077,15 +27107,11 @@
         <v>3565.682866733463</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -27114,15 +27140,11 @@
         <v>3565.682866733463</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -27151,15 +27173,11 @@
         <v>3321.699666733463</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -27188,15 +27206,11 @@
         <v>3321.699666733463</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -27225,15 +27239,11 @@
         <v>3076.497066733463</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -27262,15 +27272,11 @@
         <v>3330.629866733463</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -27299,15 +27305,11 @@
         <v>3330.629866733463</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -27336,15 +27338,11 @@
         <v>3333.593966733463</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -27373,15 +27371,11 @@
         <v>3326.879666733463</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -27410,15 +27404,11 @@
         <v>3328.197466733463</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -27447,15 +27437,11 @@
         <v>3328.197466733463</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -27484,15 +27470,11 @@
         <v>3299.641366733463</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -27521,15 +27503,11 @@
         <v>3242.830366733463</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -27558,15 +27536,11 @@
         <v>3280.175066733463</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -27595,15 +27569,11 @@
         <v>3280.364766733463</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -27632,15 +27602,11 @@
         <v>3256.271366733462</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -27669,15 +27635,11 @@
         <v>3256.271366733462</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27706,15 +27668,11 @@
         <v>3256.271366733462</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27743,15 +27701,11 @@
         <v>3256.271366733462</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27780,15 +27734,11 @@
         <v>3239.861066733462</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27817,15 +27767,11 @@
         <v>3251.061866733462</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27854,15 +27800,11 @@
         <v>3249.251866733463</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27891,15 +27833,11 @@
         <v>3248.231866733463</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27928,15 +27866,11 @@
         <v>3248.231866733463</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27965,15 +27899,11 @@
         <v>3193.862566733463</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -28002,15 +27932,11 @@
         <v>3214.489066733463</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -28039,15 +27965,11 @@
         <v>3210.342537255005</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -28076,15 +27998,11 @@
         <v>3210.342537255005</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -28113,15 +28031,11 @@
         <v>3225.332537255004</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -28150,15 +28064,11 @@
         <v>3225.332537255004</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -28187,15 +28097,11 @@
         <v>3274.726707776546</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -28224,15 +28130,11 @@
         <v>3284.895307776546</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -28261,15 +28163,11 @@
         <v>3279.269907776546</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -28302,11 +28200,7 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -28335,15 +28229,11 @@
         <v>3375.197907776546</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -28372,15 +28262,11 @@
         <v>3375.197907776546</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -28409,15 +28295,11 @@
         <v>3378.945107776546</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -28450,11 +28332,7 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -28487,11 +28365,7 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28524,11 +28398,7 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28561,11 +28431,7 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28598,11 +28464,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28635,11 +28497,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28672,11 +28530,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28709,11 +28563,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28746,11 +28596,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28783,11 +28629,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28820,11 +28662,7 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28857,11 +28695,7 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28894,11 +28728,7 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28927,15 +28757,11 @@
         <v>3120.770507776546</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28964,15 +28790,11 @@
         <v>2991.321407776546</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -29001,15 +28823,11 @@
         <v>2991.321407776546</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -29038,15 +28856,11 @@
         <v>2961.658107776546</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -29075,15 +28889,11 @@
         <v>3001.002507776546</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -29112,15 +28922,11 @@
         <v>3001.002507776546</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -29149,15 +28955,11 @@
         <v>3176.782307776546</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -29186,15 +28988,11 @@
         <v>3307.156607776546</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -29223,15 +29021,11 @@
         <v>3307.156607776546</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -29260,15 +29054,11 @@
         <v>3244.840307776546</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -29297,15 +29087,11 @@
         <v>3250.574207776546</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -29334,15 +29120,11 @@
         <v>3298.230207776546</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -29371,15 +29153,11 @@
         <v>3298.230207776546</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -29408,15 +29186,11 @@
         <v>3298.230207776546</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -29449,11 +29223,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -29482,15 +29252,11 @@
         <v>3339.528607776546</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -29519,15 +29285,11 @@
         <v>3339.528607776546</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -29556,15 +29318,11 @@
         <v>3339.528607776546</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -29593,15 +29351,11 @@
         <v>3349.201720643363</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -29630,15 +29384,11 @@
         <v>3349.201720643363</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -29667,15 +29417,11 @@
         <v>3306.04932154589</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -29704,15 +29450,11 @@
         <v>3332.15682154589</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -29741,15 +29483,11 @@
         <v>3510.92682154589</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -29778,15 +29516,11 @@
         <v>3510.92682154589</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -29815,15 +29549,11 @@
         <v>3548.13982154589</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -29852,15 +29582,11 @@
         <v>3592.428821545891</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -29889,15 +29615,11 @@
         <v>3592.428821545891</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -29926,15 +29648,11 @@
         <v>3614.65992154589</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -29963,15 +29681,11 @@
         <v>3929.16702154589</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -30000,16 +29714,14 @@
         <v>3860.96582154589</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="n">
+        <v>1</v>
+      </c>
       <c r="M799" t="inlineStr"/>
     </row>
     <row r="800">
@@ -30035,7 +29747,7 @@
         <v>3874.10902154589</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30068,7 +29780,7 @@
         <v>3870.23912154589</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30101,7 +29813,7 @@
         <v>3731.58612154589</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30134,7 +29846,7 @@
         <v>3754.396021545891</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30167,7 +29879,7 @@
         <v>3734.155521545891</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30200,7 +29912,7 @@
         <v>3660.940421545891</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30233,7 +29945,7 @@
         <v>3710.285421545891</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -30266,7 +29978,7 @@
         <v>3736.031621545891</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -30299,7 +30011,7 @@
         <v>3761.357721545891</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30332,7 +30044,7 @@
         <v>3774.510721545891</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -30365,7 +30077,7 @@
         <v>3774.479321545891</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -30398,7 +30110,7 @@
         <v>3781.034421545891</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -30431,7 +30143,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30464,7 +30176,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30497,7 +30209,7 @@
         <v>3756.045221545891</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30530,7 +30242,7 @@
         <v>3647.868921545891</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30563,7 +30275,7 @@
         <v>3652.894721545891</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30596,7 +30308,7 @@
         <v>3616.231661491788</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -30629,7 +30341,7 @@
         <v>3579.600761491788</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30662,7 +30374,7 @@
         <v>3583.902961491788</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30695,7 +30407,7 @@
         <v>3583.902961491788</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -30728,7 +30440,7 @@
         <v>3599.084861491788</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -30761,7 +30473,7 @@
         <v>3607.447561491788</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -30794,7 +30506,7 @@
         <v>3595.120861491788</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -30827,7 +30539,7 @@
         <v>3623.574061491788</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -30860,7 +30572,7 @@
         <v>3598.217761491788</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -30893,7 +30605,7 @@
         <v>3615.030461491788</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -30926,7 +30638,7 @@
         <v>3727.370461491788</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -30959,7 +30671,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -30992,7 +30704,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -31256,7 +30968,7 @@
         <v>3679.010161491788</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -31289,7 +31001,7 @@
         <v>3693.744183769015</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -31322,7 +31034,7 @@
         <v>3683.286983769015</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -31355,7 +31067,7 @@
         <v>3666.397892008547</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -31388,7 +31100,7 @@
         <v>3451.953392008547</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -31421,7 +31133,7 @@
         <v>3458.749192008547</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -31454,7 +31166,7 @@
         <v>3439.249392008547</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
@@ -31487,7 +31199,7 @@
         <v>3232.346892008547</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
@@ -31520,7 +31232,7 @@
         <v>3205.781092008547</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
@@ -31553,7 +31265,7 @@
         <v>3129.621292008547</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
@@ -31586,7 +31298,7 @@
         <v>3136.068292008547</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -31619,7 +31331,7 @@
         <v>2916.554592008547</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -31652,7 +31364,7 @@
         <v>2916.554592008547</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
@@ -31685,7 +31397,7 @@
         <v>2916.554592008547</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -31718,7 +31430,7 @@
         <v>3443.694992008547</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -31751,7 +31463,7 @@
         <v>3442.985092008547</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -31784,7 +31496,7 @@
         <v>3442.985092008547</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
@@ -31817,7 +31529,7 @@
         <v>3470.686192008548</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -31850,7 +31562,7 @@
         <v>3470.686192008548</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -31883,7 +31595,7 @@
         <v>3374.297506501301</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
@@ -31916,7 +31628,7 @@
         <v>3473.653930405504</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -31949,7 +31661,7 @@
         <v>3386.161930405503</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -31982,7 +31694,7 @@
         <v>3310.929430405503</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -32015,7 +31727,7 @@
         <v>3267.539530405503</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -32048,7 +31760,7 @@
         <v>3239.881130405503</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -32081,7 +31793,7 @@
         <v>3241.550030405504</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -32114,7 +31826,7 @@
         <v>3238.854730405504</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -32147,7 +31859,7 @@
         <v>3187.894630405504</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -32180,7 +31892,7 @@
         <v>3187.894630405504</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -32213,7 +31925,7 @@
         <v>3118.742430405504</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -32246,7 +31958,7 @@
         <v>3118.742430405504</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -32279,7 +31991,7 @@
         <v>3118.742430405504</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -32312,7 +32024,7 @@
         <v>3113.135830405504</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -32345,7 +32057,7 @@
         <v>3033.524630405504</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -32378,7 +32090,7 @@
         <v>3033.524630405504</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -32411,7 +32123,7 @@
         <v>3067.260030405504</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -32444,7 +32156,7 @@
         <v>2901.172530405504</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -32642,7 +32354,7 @@
         <v>3714.970430405504</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -33896,7 +33608,7 @@
         <v>4397.047069354374</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -33929,7 +33641,7 @@
         <v>4310.385769354374</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -33962,7 +33674,7 @@
         <v>4311.856869354374</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -33995,7 +33707,7 @@
         <v>4295.543469354374</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -34028,7 +33740,7 @@
         <v>4337.763169354374</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -34061,7 +33773,7 @@
         <v>4339.416769354373</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -34094,7 +33806,7 @@
         <v>4339.416769354373</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -34127,7 +33839,7 @@
         <v>4418.072269354373</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -34160,7 +33872,7 @@
         <v>4577.357469354373</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -34193,7 +33905,7 @@
         <v>4577.357469354373</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -34226,7 +33938,7 @@
         <v>4642.984569354373</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -34259,7 +33971,7 @@
         <v>4655.310469354373</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -34721,7 +34433,7 @@
         <v>4543.279169354372</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -34754,7 +34466,7 @@
         <v>4572.712569354372</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -34853,7 +34565,7 @@
         <v>4125.700969354371</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -34886,7 +34598,7 @@
         <v>4246.050169354371</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -34919,7 +34631,7 @@
         <v>4182.976969354371</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -34952,7 +34664,7 @@
         <v>4183.188869354371</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -34985,7 +34697,7 @@
         <v>4170.609169354371</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -35018,7 +34730,7 @@
         <v>4164.754569354372</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -35051,7 +34763,7 @@
         <v>4164.754569354372</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -35084,7 +34796,7 @@
         <v>4091.564269354371</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -35117,7 +34829,7 @@
         <v>4105.932869354371</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -35150,7 +34862,7 @@
         <v>4097.168669354372</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -35183,7 +34895,7 @@
         <v>4097.168669354372</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -35216,7 +34928,7 @@
         <v>4097.168669354372</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -35249,7 +34961,7 @@
         <v>4155.627154495666</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -35282,7 +34994,7 @@
         <v>4126.876154495666</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -35414,7 +35126,7 @@
         <v>4106.341054495667</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -35447,7 +35159,7 @@
         <v>4112.987054495667</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -36206,7 +35918,7 @@
         <v>4291.864138107056</v>
       </c>
       <c r="H987" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -36239,7 +35951,7 @@
         <v>4311.780838107055</v>
       </c>
       <c r="H988" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -36272,7 +35984,7 @@
         <v>4290.756038107055</v>
       </c>
       <c r="H989" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -36305,7 +36017,7 @@
         <v>4088.597675663616</v>
       </c>
       <c r="H990" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -36338,7 +36050,7 @@
         <v>4088.597675663616</v>
       </c>
       <c r="H991" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -36536,7 +36248,7 @@
         <v>4290.698375121121</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -36569,7 +36281,7 @@
         <v>4343.871974578626</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -36602,7 +36314,7 @@
         <v>4379.021874578626</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -36635,7 +36347,7 @@
         <v>4403.844374578626</v>
       </c>
       <c r="H1000" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -36668,7 +36380,7 @@
         <v>4388.771874578626</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -36701,7 +36413,7 @@
         <v>4171.208874578626</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -36734,7 +36446,7 @@
         <v>4225.521195842734</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36767,7 +36479,7 @@
         <v>4197.188095842735</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1004" t="inlineStr"/>
       <c r="J1004" t="inlineStr"/>
@@ -36800,7 +36512,7 @@
         <v>4197.188095842735</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1005" t="inlineStr"/>
       <c r="J1005" t="inlineStr"/>
@@ -37427,7 +37139,7 @@
         <v>4593.064930008874</v>
       </c>
       <c r="H1024" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1024" t="inlineStr"/>
       <c r="J1024" t="inlineStr"/>
@@ -37460,7 +37172,7 @@
         <v>4590.979430008874</v>
       </c>
       <c r="H1025" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1025" t="inlineStr"/>
       <c r="J1025" t="inlineStr"/>
@@ -37493,7 +37205,7 @@
         <v>4618.685883257972</v>
       </c>
       <c r="H1026" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1026" t="inlineStr"/>
       <c r="J1026" t="inlineStr"/>
@@ -37526,7 +37238,7 @@
         <v>4577.104983257972</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1027" t="inlineStr"/>
       <c r="J1027" t="inlineStr"/>
@@ -37559,7 +37271,7 @@
         <v>4577.104983257972</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1028" t="inlineStr"/>
       <c r="J1028" t="inlineStr"/>
@@ -37592,7 +37304,7 @@
         <v>4587.052083257972</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1029" t="inlineStr"/>
       <c r="J1029" t="inlineStr"/>
@@ -37625,7 +37337,7 @@
         <v>4598.376783257972</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37658,7 +37370,7 @@
         <v>4594.738283257972</v>
       </c>
       <c r="H1031" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1031" t="inlineStr"/>
       <c r="J1031" t="inlineStr"/>
@@ -37691,7 +37403,7 @@
         <v>4608.186883257972</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37724,7 +37436,7 @@
         <v>4608.186883257972</v>
       </c>
       <c r="H1033" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -37757,7 +37469,7 @@
         <v>4611.853783257972</v>
       </c>
       <c r="H1034" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -37790,7 +37502,7 @@
         <v>4540.473983257973</v>
       </c>
       <c r="H1035" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -37823,7 +37535,7 @@
         <v>4584.651383257972</v>
       </c>
       <c r="H1036" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -37856,7 +37568,7 @@
         <v>4584.651383257972</v>
       </c>
       <c r="H1037" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -37889,7 +37601,7 @@
         <v>4578.564283257972</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37922,7 +37634,7 @@
         <v>4588.174383257972</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -37955,7 +37667,7 @@
         <v>4588.174383257972</v>
       </c>
       <c r="H1040" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -38285,7 +37997,7 @@
         <v>4600.203012749192</v>
       </c>
       <c r="H1050" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -38483,7 +38195,7 @@
         <v>4627.437212749192</v>
       </c>
       <c r="H1056" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -38516,7 +38228,7 @@
         <v>4627.437212749192</v>
       </c>
       <c r="H1057" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -38549,7 +38261,7 @@
         <v>4628.113567384656</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -38582,7 +38294,7 @@
         <v>4614.836567384656</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -38615,7 +38327,7 @@
         <v>4614.836567384656</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -38648,7 +38360,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1061" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -38681,7 +38393,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -38714,7 +38426,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1063" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -38747,7 +38459,7 @@
         <v>4590.752767384655</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -38780,7 +38492,7 @@
         <v>4557.443067384655</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38813,7 +38525,7 @@
         <v>4572.470867384655</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -38846,7 +38558,7 @@
         <v>4572.470867384655</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38879,7 +38591,7 @@
         <v>4570.064867384655</v>
       </c>
       <c r="H1068" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -38912,7 +38624,7 @@
         <v>4570.064867384655</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -38945,7 +38657,7 @@
         <v>4303.271167384655</v>
       </c>
       <c r="H1070" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -38978,7 +38690,7 @@
         <v>4254.345967384656</v>
       </c>
       <c r="H1071" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -39011,7 +38723,7 @@
         <v>4254.345967384656</v>
       </c>
       <c r="H1072" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -39044,7 +38756,7 @@
         <v>4215.805867384655</v>
       </c>
       <c r="H1073" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -39077,7 +38789,7 @@
         <v>4215.805867384655</v>
       </c>
       <c r="H1074" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -39110,7 +38822,7 @@
         <v>4316.403967384656</v>
       </c>
       <c r="H1075" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -39143,7 +38855,7 @@
         <v>4316.403967384656</v>
       </c>
       <c r="H1076" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -39176,7 +38888,7 @@
         <v>4316.403967384656</v>
       </c>
       <c r="H1077" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -39209,7 +38921,7 @@
         <v>4316.403967384656</v>
       </c>
       <c r="H1078" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -39242,7 +38954,7 @@
         <v>4379.508867384656</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -39275,7 +38987,7 @@
         <v>4395.983567384656</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -39308,7 +39020,7 @@
         <v>4395.983567384656</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -39341,7 +39053,7 @@
         <v>4395.983567384656</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -39869,7 +39581,7 @@
         <v>4203.232267249461</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -39968,7 +39680,7 @@
         <v>4337.778567249461</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -40001,7 +39713,7 @@
         <v>4274.410167249461</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -40034,7 +39746,7 @@
         <v>4267.631967249461</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -40067,7 +39779,7 @@
         <v>4221.363367249461</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -40100,7 +39812,7 @@
         <v>4182.602565621238</v>
       </c>
       <c r="H1105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -40133,7 +39845,7 @@
         <v>3942.275565621238</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -40166,7 +39878,7 @@
         <v>3974.421765621238</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -40199,7 +39911,7 @@
         <v>3958.421765621238</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -40232,7 +39944,7 @@
         <v>3958.421765621238</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -40265,7 +39977,7 @@
         <v>3960.605565621237</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -40298,7 +40010,7 @@
         <v>3960.605565621237</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -40331,7 +40043,7 @@
         <v>3843.217865621237</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -40364,7 +40076,7 @@
         <v>3846.620283934927</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -40397,7 +40109,7 @@
         <v>3846.620283934927</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -40430,7 +40142,7 @@
         <v>3840.925583934927</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -40463,7 +40175,7 @@
         <v>3840.925583934927</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -40496,7 +40208,7 @@
         <v>3843.331583934927</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -40529,7 +40241,7 @@
         <v>3841.290183934927</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -40562,7 +40274,7 @@
         <v>3816.803983934927</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -40595,7 +40307,7 @@
         <v>3823.793783934927</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -40628,7 +40340,7 @@
         <v>3804.817483934927</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -40661,7 +40373,7 @@
         <v>3818.324883934927</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -40694,7 +40406,7 @@
         <v>3816.846783934927</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -40727,7 +40439,7 @@
         <v>3808.269383934927</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -40760,7 +40472,7 @@
         <v>3815.441983934927</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -40793,7 +40505,7 @@
         <v>3820.241983934927</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -40826,7 +40538,7 @@
         <v>3688.834083934927</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -40859,7 +40571,7 @@
         <v>3750.541083934927</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -41189,7 +40901,7 @@
         <v>3667.303074885153</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -41255,7 +40967,7 @@
         <v>3657.288274885153</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -41288,7 +41000,7 @@
         <v>3578.875874885153</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -41321,7 +41033,7 @@
         <v>3687.498274885153</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -41354,7 +41066,7 @@
         <v>3680.026072069531</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -41387,7 +41099,7 @@
         <v>3594.781772069532</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -41420,7 +41132,7 @@
         <v>3561.289172069532</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -41453,7 +41165,7 @@
         <v>3366.020572069532</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -41486,7 +41198,7 @@
         <v>1893.920572069532</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -45490,6 +45202,6 @@
       <c r="M1268" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ETH.xlsx
+++ b/BackTest/2019-10-30 BackTest ETH.xlsx
@@ -1837,11 +1837,17 @@
         <v>-131.0607624152285</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>215400</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1876,17 @@
         <v>-103.3454288656455</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>215600</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1919,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1956,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +1993,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2030,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2067,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2104,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2141,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2178,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2215,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2252,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2289,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2326,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2363,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2400,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2437,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2474,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2511,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2548,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2585,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2622,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2659,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2696,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2733,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2770,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2807,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2844,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2881,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2918,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2955,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +2992,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3029,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3066,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3103,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3140,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3177,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3214,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3251,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3288,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3325,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3362,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3399,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3436,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3473,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3510,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3543,17 @@
         <v>-82.71223778594052</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>215200</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3396,7 +3590,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L91" t="n">
@@ -4909,9 +5103,11 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>215900</v>
+      </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -4946,9 +5142,11 @@
         <v>-203.9328615609328</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>215900</v>
+      </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -4983,9 +5181,11 @@
         <v>-83.18196156093285</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>215900</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5020,9 +5220,11 @@
         <v>0.1576384390671564</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>216100</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5057,9 +5259,11 @@
         <v>-41.90841248685877</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>216200</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5094,9 +5298,11 @@
         <v>-41.87981248685877</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>216000</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5279,9 +5485,11 @@
         <v>-56.88381230201588</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>216100</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5316,9 +5524,11 @@
         <v>355.8374205698076</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>216100</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -6167,16 +6377,18 @@
         <v>2834.035771257248</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L164" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
       <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
@@ -6202,11 +6414,15 @@
         <v>2545.741871257248</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6235,11 +6451,15 @@
         <v>2765.308671257248</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6268,11 +6488,15 @@
         <v>2752.766771257247</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6301,11 +6525,15 @@
         <v>2822.961471257247</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6334,11 +6562,15 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6367,11 +6599,15 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6400,11 +6636,15 @@
         <v>2633.774171257247</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6433,11 +6673,15 @@
         <v>2474.338571257248</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6466,11 +6710,15 @@
         <v>2474.338571257248</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6499,11 +6747,15 @@
         <v>2415.023571257248</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6532,11 +6784,15 @@
         <v>2532.329771257248</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6565,11 +6821,15 @@
         <v>2737.753971257247</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +6858,15 @@
         <v>2760.379071257248</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6635,7 +6899,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6664,11 +6932,15 @@
         <v>2732.794771257248</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6701,7 +6973,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6734,7 +7010,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6767,7 +7047,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6800,7 +7084,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6833,7 +7121,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6866,7 +7158,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6899,7 +7195,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6932,7 +7232,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6965,7 +7269,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6998,7 +7306,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7031,7 +7343,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7064,7 +7380,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7097,7 +7417,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7130,7 +7454,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7163,7 +7491,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7196,7 +7528,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7229,7 +7565,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7262,7 +7602,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7295,7 +7639,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7328,7 +7676,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7361,7 +7713,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7394,7 +7750,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7427,7 +7787,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7460,7 +7824,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7861,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7526,7 +7898,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7559,7 +7935,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7592,7 +7972,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7625,7 +8009,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7658,7 +8046,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7691,7 +8083,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7724,7 +8120,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7757,7 +8157,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7790,7 +8194,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7823,7 +8231,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7856,7 +8268,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7889,7 +8305,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7922,7 +8342,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7955,7 +8379,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7988,7 +8416,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8021,7 +8453,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8054,7 +8490,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8087,7 +8527,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8120,7 +8564,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8153,7 +8601,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8186,7 +8638,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8219,7 +8675,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8252,7 +8712,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8285,7 +8749,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8318,7 +8786,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8351,7 +8823,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8384,7 +8860,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8417,7 +8897,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8450,7 +8934,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8483,7 +8971,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8516,7 +9008,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8549,7 +9045,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8582,7 +9082,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8615,7 +9119,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9156,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8681,7 +9193,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8714,7 +9230,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8747,7 +9267,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8780,7 +9304,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8813,7 +9341,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8846,7 +9378,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8879,7 +9415,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8912,7 +9452,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8945,7 +9489,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8978,7 +9526,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9011,7 +9563,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9044,7 +9600,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9077,7 +9637,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9110,7 +9674,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9143,7 +9711,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9176,7 +9748,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9209,7 +9785,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9242,7 +9822,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9275,7 +9859,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9308,7 +9896,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9341,7 +9933,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9374,7 +9970,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9407,7 +10007,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9440,7 +10044,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9473,7 +10081,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9506,7 +10118,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9539,7 +10155,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9572,7 +10192,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9605,7 +10229,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9638,7 +10266,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9671,7 +10303,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9704,7 +10340,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9737,7 +10377,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9770,7 +10414,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10451,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9836,7 +10488,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9869,7 +10525,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9902,7 +10562,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9935,7 +10599,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9968,7 +10636,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10001,7 +10673,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10034,7 +10710,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10067,7 +10747,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10100,7 +10784,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10133,7 +10821,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10166,7 +10858,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10199,7 +10895,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10232,7 +10932,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10265,7 +10969,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10298,7 +11006,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10331,7 +11043,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10364,7 +11080,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10397,7 +11117,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10430,7 +11154,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10463,7 +11191,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10496,7 +11228,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10529,7 +11265,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10562,7 +11302,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10595,7 +11339,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10628,7 +11376,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10661,7 +11413,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10694,7 +11450,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10727,7 +11487,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10760,7 +11524,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10793,7 +11561,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10826,7 +11598,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10859,7 +11635,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10892,7 +11672,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10925,7 +11709,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11746,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10991,7 +11783,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11024,7 +11820,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11057,7 +11857,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11090,7 +11894,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11123,7 +11931,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11156,7 +11968,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11189,7 +12005,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11222,7 +12042,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +12079,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11288,7 +12116,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11321,7 +12153,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11354,7 +12190,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11387,7 +12227,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11420,7 +12264,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11453,7 +12301,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11486,7 +12338,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11519,7 +12375,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11552,7 +12412,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11585,7 +12449,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11618,7 +12486,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11651,7 +12523,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11684,7 +12560,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11717,7 +12597,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11750,7 +12634,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11783,7 +12671,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11816,7 +12708,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11849,7 +12745,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11882,7 +12782,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11915,7 +12819,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11948,7 +12856,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11981,7 +12893,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12014,7 +12930,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12047,7 +12967,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12080,7 +13004,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12113,7 +13041,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12146,7 +13078,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12179,7 +13115,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12212,7 +13152,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12245,7 +13189,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12278,7 +13226,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12311,7 +13263,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12344,7 +13300,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12377,7 +13337,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12410,7 +13374,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12443,7 +13411,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12476,7 +13448,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12509,7 +13485,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12542,7 +13522,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12575,7 +13559,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12608,7 +13596,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12641,7 +13633,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12674,7 +13670,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12707,7 +13707,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12740,7 +13744,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12773,7 +13781,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12806,7 +13818,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12839,7 +13855,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12872,7 +13892,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12905,7 +13929,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12938,7 +13966,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12971,7 +14003,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13004,7 +14040,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13037,7 +14077,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13070,7 +14114,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13103,7 +14151,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13136,7 +14188,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13169,7 +14225,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13202,7 +14262,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13235,7 +14299,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13268,7 +14336,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13301,7 +14373,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13334,7 +14410,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13367,7 +14447,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13400,7 +14484,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13433,7 +14521,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13466,7 +14558,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13499,7 +14595,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13532,7 +14632,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13565,7 +14669,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13598,7 +14706,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13631,7 +14743,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13664,7 +14780,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13697,7 +14817,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13730,7 +14854,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13763,7 +14891,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13796,7 +14928,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13829,7 +14965,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13862,7 +15002,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13895,7 +15039,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13928,7 +15076,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13961,7 +15113,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13994,7 +15150,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14027,7 +15187,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14060,7 +15224,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14093,7 +15261,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14126,7 +15298,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14159,7 +15335,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14192,7 +15372,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14225,7 +15409,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14258,7 +15446,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14291,7 +15483,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14324,7 +15520,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14357,7 +15557,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14390,7 +15594,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14423,7 +15631,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14456,7 +15668,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14489,7 +15705,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14522,7 +15742,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14555,7 +15779,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14588,7 +15816,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14621,7 +15853,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14654,7 +15890,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14687,7 +15927,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14720,7 +15964,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14753,7 +16001,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14786,7 +16038,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14819,7 +16075,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14852,7 +16112,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14885,7 +16149,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14918,7 +16186,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14951,7 +16223,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14984,7 +16260,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15017,7 +16297,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15050,7 +16334,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15083,7 +16371,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15116,7 +16408,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15149,7 +16445,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15182,7 +16482,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15215,7 +16519,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15248,7 +16556,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15281,7 +16593,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15314,7 +16630,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15347,7 +16667,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15380,7 +16704,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15413,7 +16741,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15446,7 +16778,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15479,7 +16815,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15512,7 +16852,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15545,7 +16889,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15578,7 +16926,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15611,7 +16963,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15644,7 +17000,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15677,7 +17037,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15710,7 +17074,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15743,7 +17111,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15776,7 +17148,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15809,7 +17185,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15842,7 +17222,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15875,7 +17259,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15908,7 +17296,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15941,7 +17333,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15974,7 +17370,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16007,7 +17407,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16040,7 +17444,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16073,7 +17481,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16106,7 +17518,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16139,7 +17555,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16172,7 +17592,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16205,7 +17629,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16238,7 +17666,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16271,7 +17703,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16304,7 +17740,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16337,7 +17777,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16370,7 +17814,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16403,7 +17851,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16436,7 +17888,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16469,7 +17925,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16502,7 +17962,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16535,7 +17999,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16568,7 +18036,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16601,7 +18073,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16634,7 +18110,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16667,7 +18147,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16700,7 +18184,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16733,7 +18221,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16766,7 +18258,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16799,7 +18295,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16832,7 +18332,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16865,7 +18369,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16898,7 +18406,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16931,7 +18443,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16964,7 +18480,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16997,7 +18517,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17030,7 +18554,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17063,7 +18591,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17096,7 +18628,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17129,7 +18665,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17162,7 +18702,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17195,7 +18739,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17228,7 +18776,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17261,7 +18813,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17294,7 +18850,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17327,7 +18887,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17360,7 +18924,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17393,7 +18961,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17426,7 +18998,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17459,7 +19035,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17492,7 +19072,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17525,7 +19109,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17558,7 +19146,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17591,7 +19183,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17624,7 +19220,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17657,7 +19257,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17690,7 +19294,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17723,7 +19331,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17756,7 +19368,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17789,7 +19405,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17822,7 +19442,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17855,7 +19479,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17888,7 +19516,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17921,7 +19553,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17954,7 +19590,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17987,7 +19627,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18020,7 +19664,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18053,7 +19701,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18086,7 +19738,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18119,7 +19775,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18152,7 +19812,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18185,7 +19849,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18218,7 +19886,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18251,7 +19923,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18284,7 +19960,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18317,7 +19997,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18350,7 +20034,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18383,7 +20071,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18416,7 +20108,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18449,7 +20145,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18482,7 +20182,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18515,7 +20219,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18548,7 +20256,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18581,7 +20293,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18614,7 +20330,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18647,7 +20367,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18680,7 +20404,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18713,7 +20441,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18746,7 +20478,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18779,7 +20515,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18812,7 +20552,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18845,7 +20589,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18878,7 +20626,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18911,7 +20663,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18944,7 +20700,11 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18977,7 +20737,11 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19010,7 +20774,11 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19043,7 +20811,11 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19076,7 +20848,11 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19109,7 +20885,11 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19142,7 +20922,11 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19175,7 +20959,11 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19208,7 +20996,11 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19241,7 +21033,11 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19274,7 +21070,11 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19307,7 +21107,11 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19340,7 +21144,11 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19373,7 +21181,11 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19406,7 +21218,11 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19439,7 +21255,11 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19472,7 +21292,11 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19505,7 +21329,11 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19538,7 +21366,11 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19571,7 +21403,11 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19604,7 +21440,11 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19637,7 +21477,11 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19670,7 +21514,11 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19703,7 +21551,11 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19736,7 +21588,11 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19769,7 +21625,11 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19802,7 +21662,11 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19835,7 +21699,11 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19868,7 +21736,11 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19901,7 +21773,11 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19934,7 +21810,11 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19967,7 +21847,11 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20000,7 +21884,11 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20033,7 +21921,11 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20066,7 +21958,11 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20099,7 +21995,11 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20132,7 +22032,11 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20165,7 +22069,11 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20198,7 +22106,11 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20231,7 +22143,11 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20264,7 +22180,11 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20297,7 +22217,11 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20330,7 +22254,11 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20363,7 +22291,11 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20396,7 +22328,11 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20429,7 +22365,11 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20462,7 +22402,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20495,7 +22439,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20528,7 +22476,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20561,7 +22513,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20594,7 +22550,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20627,7 +22587,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20660,7 +22624,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20693,7 +22661,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20726,7 +22698,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20759,7 +22735,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20792,7 +22772,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20825,7 +22809,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20858,7 +22846,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20891,7 +22883,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20924,7 +22920,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20957,7 +22957,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20990,7 +22994,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21023,7 +23031,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21056,7 +23068,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21089,7 +23105,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21122,7 +23142,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21155,7 +23179,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21188,7 +23216,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21221,7 +23253,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21254,7 +23290,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21287,7 +23327,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21320,7 +23364,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21353,7 +23401,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21386,7 +23438,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21419,7 +23475,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21452,7 +23512,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21485,7 +23549,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21518,7 +23586,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21551,7 +23623,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21584,7 +23660,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21617,7 +23697,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21650,7 +23734,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21683,7 +23771,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21716,7 +23808,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21749,7 +23845,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21782,7 +23882,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21815,7 +23919,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21848,7 +23956,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21881,7 +23993,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21914,7 +24030,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21947,7 +24067,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -21980,7 +24104,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22013,7 +24141,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22046,7 +24178,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22079,7 +24215,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22112,7 +24252,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22145,7 +24289,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22178,7 +24326,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22211,7 +24363,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22244,7 +24400,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22277,7 +24437,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22310,7 +24474,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22343,7 +24511,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22376,7 +24548,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22409,7 +24585,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22442,7 +24622,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22475,7 +24659,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22508,7 +24696,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22541,7 +24733,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22574,7 +24770,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22607,7 +24807,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22640,7 +24844,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22669,11 +24877,15 @@
         <v>3089.774977903074</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22702,11 +24914,15 @@
         <v>3215.611477903074</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -22735,11 +24951,15 @@
         <v>3728.545877903074</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -22772,7 +24992,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -22805,7 +25029,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -22838,7 +25066,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -22871,7 +25103,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -22904,7 +25140,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -22937,7 +25177,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -22970,7 +25214,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23003,7 +25251,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23032,14 +25284,16 @@
         <v>4436.908074536323</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr"/>
       <c r="M675" t="inlineStr"/>
     </row>
     <row r="676">
@@ -23065,7 +25319,7 @@
         <v>4436.908074536323</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23098,7 +25352,7 @@
         <v>4473.482674536323</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23131,7 +25385,7 @@
         <v>4245.584774536323</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23164,7 +25418,7 @@
         <v>4170.463174536322</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23230,7 +25484,7 @@
         <v>3799.559174536322</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23362,7 +25616,7 @@
         <v>3864.435873099411</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23395,7 +25649,7 @@
         <v>3783.813873099411</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23428,7 +25682,7 @@
         <v>3469.287373099412</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23560,7 +25814,7 @@
         <v>3466.716210036348</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23593,7 +25847,7 @@
         <v>3467.716210036348</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -23626,7 +25880,7 @@
         <v>3580.430510036349</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -23659,7 +25913,7 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -23692,7 +25946,7 @@
         <v>3558.406861115485</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23725,7 +25979,7 @@
         <v>3558.246861115485</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -23758,7 +26012,7 @@
         <v>3584.606461115485</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -23791,7 +26045,7 @@
         <v>3612.700861115485</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -23824,7 +26078,7 @@
         <v>3621.029066733463</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23857,7 +26111,7 @@
         <v>3621.029066733463</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23890,7 +26144,7 @@
         <v>3597.178766733462</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23923,7 +26177,7 @@
         <v>3596.188766733463</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23956,7 +26210,7 @@
         <v>3571.857866733463</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23989,7 +26243,7 @@
         <v>3550.321766733463</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24022,7 +26276,7 @@
         <v>3465.321766733463</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24154,7 +26408,7 @@
         <v>3586.095466733463</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24418,7 +26672,7 @@
         <v>3578.895566733463</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26992,7 +29246,7 @@
         <v>3592.428821545891</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27025,7 +29279,7 @@
         <v>3592.428821545891</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27058,7 +29312,7 @@
         <v>3614.65992154589</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27091,7 +29345,7 @@
         <v>3929.16702154589</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27124,7 +29378,7 @@
         <v>3860.96582154589</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27157,7 +29411,7 @@
         <v>3874.10902154589</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27190,7 +29444,7 @@
         <v>3870.23912154589</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27223,7 +29477,7 @@
         <v>3731.58612154589</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27256,7 +29510,7 @@
         <v>3754.396021545891</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27289,7 +29543,7 @@
         <v>3734.155521545891</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27322,7 +29576,7 @@
         <v>3660.940421545891</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27355,7 +29609,7 @@
         <v>3710.285421545891</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27388,7 +29642,7 @@
         <v>3736.031621545891</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27421,7 +29675,7 @@
         <v>3761.357721545891</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27454,7 +29708,7 @@
         <v>3774.510721545891</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27487,7 +29741,7 @@
         <v>3774.479321545891</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27520,7 +29774,7 @@
         <v>3781.034421545891</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27553,7 +29807,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27586,7 +29840,7 @@
         <v>3768.435221545891</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27619,7 +29873,7 @@
         <v>3756.045221545891</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27652,7 +29906,7 @@
         <v>3647.868921545891</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27685,7 +29939,7 @@
         <v>3652.894721545891</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27718,7 +29972,7 @@
         <v>3616.231661491788</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27751,7 +30005,7 @@
         <v>3579.600761491788</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27784,7 +30038,7 @@
         <v>3583.902961491788</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27817,7 +30071,7 @@
         <v>3583.902961491788</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27850,7 +30104,7 @@
         <v>3599.084861491788</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27883,7 +30137,7 @@
         <v>3607.447561491788</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27916,7 +30170,7 @@
         <v>3595.120861491788</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27949,7 +30203,7 @@
         <v>3623.574061491788</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27982,7 +30236,7 @@
         <v>3598.217761491788</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28015,7 +30269,7 @@
         <v>3615.030461491788</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28048,7 +30302,7 @@
         <v>3727.370461491788</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28081,7 +30335,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28114,7 +30368,7 @@
         <v>3729.145661491788</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28147,7 +30401,7 @@
         <v>3804.473061491788</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28180,7 +30434,7 @@
         <v>3754.986261491788</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28213,7 +30467,7 @@
         <v>3740.546261491788</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28246,7 +30500,7 @@
         <v>3745.161561491788</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28279,7 +30533,7 @@
         <v>3804.527061491788</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28312,7 +30566,7 @@
         <v>3804.527061491788</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28345,7 +30599,7 @@
         <v>3697.850961491788</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28378,7 +30632,7 @@
         <v>3679.010161491788</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28411,7 +30665,7 @@
         <v>3693.744183769015</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28444,7 +30698,7 @@
         <v>3683.286983769015</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28477,7 +30731,7 @@
         <v>3666.397892008547</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -34153,7 +36407,7 @@
         <v>4716.129430214118</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -34186,7 +36440,7 @@
         <v>4716.129430214118</v>
       </c>
       <c r="H1013" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1013" t="inlineStr"/>
       <c r="J1013" t="inlineStr"/>
@@ -34219,7 +36473,7 @@
         <v>4759.373676281533</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -34252,7 +36506,7 @@
         <v>4759.373676281533</v>
       </c>
       <c r="H1015" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1015" t="inlineStr"/>
       <c r="J1015" t="inlineStr"/>
@@ -34285,7 +36539,7 @@
         <v>4732.583876281534</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -34318,7 +36572,7 @@
         <v>4649.579768852448</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -34351,7 +36605,7 @@
         <v>4550.941068852448</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
